--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>86.51</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003308</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投睿利灵活配置混合A</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.64</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004635</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投睿利灵活配置混合C</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.64</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003715</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈消费主题灵活配置混合</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>003715</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>宝盈消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>001223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>鹏华文化传媒娱乐股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>003308</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中信建投睿利灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67.57</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>004635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>中信建投睿利灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -1910,12 +1910,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2090,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,247 +455,817 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4917</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4141</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3454</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1321,329 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1978</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1386</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010896</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平价值增长股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>73.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>73.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1651,488 +1899,240 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>银河稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.54</t>
+          <t>74.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1202</t>
+          <t>0.4917</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001319</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银汇理信息传媒主题股票</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1000</t>
+          <t>0.4141</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.01</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.3454</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.05</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.0934</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519629</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519630</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
+++ b/数据整理/stocks/A股/创业板/300788-中信出版.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +487,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.04</v>
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
